--- a/测试用例设计清单.xlsx
+++ b/测试用例设计清单.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Information文档信息" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="330">
   <si>
     <r>
       <rPr>
@@ -255,9 +255,6 @@
     </r>
   </si>
   <si>
-    <t>在此处概述本测试用例</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -390,13 +387,7 @@
     </r>
   </si>
   <si>
-    <t>yyyy.mm.dd</t>
-  </si>
-  <si>
     <t>1.00</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
   <si>
     <r>
@@ -415,53 +406,6 @@
       </rPr>
       <t>初稿完成</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作者名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">revised xxx </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>XXX Xxx Xxx ...</t>
-    </r>
-  </si>
-  <si>
-    <t>……</t>
   </si>
   <si>
     <r>
@@ -519,21 +463,6 @@
       </rPr>
       <t>分发日期</t>
     </r>
-  </si>
-  <si>
-    <t>&lt;T.M.B&amp;C.P.M&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Project Manager&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Team members&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Customer Representative&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Others&gt;</t>
   </si>
   <si>
     <t>测试结果分析</t>
@@ -1709,187 +1638,187 @@
   </si>
   <si>
     <t>核心处理模块</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试输入为空的边界情况</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>黑盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"A"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hola"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hola:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"HOLA"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hola:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hola:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试小写单词</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试大写单词</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试大小写混合单词</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"HoLa"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hola:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"HoLa hola HOLA"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hola:3;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hola:3;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"-a"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a-"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"-a-"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a-b"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a-b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a-b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"-a-b-"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a~b"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a!b"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a_b"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"c0w"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"c:1;w:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"c:1;w:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1929,15 +1858,15 @@
       </rPr>
       <t xml:space="preserve">  amigo"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"amigo:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1960,355 +1889,355 @@
       </rPr>
       <t>*)="</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"(see Box 3-2).8865d_c01_016"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"box:1;c:1;d:1;see:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"box:1;c:1;d:1;see:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试对-的处理</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试~作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试!作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试_作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试数字作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试非英文字母</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试奇怪的符号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>混合测试分词正确性</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试小写字母</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a A"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:2;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试大写字母</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试大小写字母混合统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试单词词频统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试空格作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"o k"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"k:1;o:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"darkness:1;hello:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hello\ndarkness"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试换行符作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试制表符作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"hello\tdarkness"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"darkness:1;hello:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"darkness:1;hello:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试引号作为分隔符</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"let's"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试词频统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a a a"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"let:1;s:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"let:1;s:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:3;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:3;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a b a b a b"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:3;b:3;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:3;b:3;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a b c"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;c:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试词频统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试词频排序</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a b b c c c"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"c:3;b:2;a:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"ab ac"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"ab:1;ac:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"ab:1;ac:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"aba acc"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"aba:1;acc:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"aba:1;acc:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试分词</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>黑盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>白盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"apple"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"apple:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"~~"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"app~le"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"~app~"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"-wow"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"wow-"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"-w-o-w-"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"wOw"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a b"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a a"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"b b a"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"b a"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"ac ab"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"app:1;le:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"app:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"app:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"wow:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"wow:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"wow:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"wow:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"w-o-w:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"w-o-w:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:2;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"b:2;a:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a:1;b:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"ab:1;ac:1;"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试词频统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试排序</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2323,19 +2252,19 @@
       </rPr>
       <t>函数</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试非法输入</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>a.c</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a.c"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2375,15 +2304,15 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>a.avi</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a.avi"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2423,7 +2352,7 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2463,11 +2392,11 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"notfound.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2490,7 +2419,7 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2513,11 +2442,11 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"a.txt b.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2540,7 +2469,7 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2563,15 +2492,15 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试处理结果</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"1.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"2.txt"</t>
@@ -2635,11 +2564,11 @@
       </rPr>
       <t>:1;amigo:1;"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"1_e.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"2_e.txt"</t>
@@ -2667,83 +2596,83 @@
   </si>
   <si>
     <t>"result.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>输出控制模块</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试输出格式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"result.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>黑盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"digimon:2 pokemon:1"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>输出控制模块</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>输出控制模块</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试输出格式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试输出格式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"1.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"2.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"seas:22 would:19 rise:15 when:13 I:10 gave:7 the:5 word:1","2.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"much.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>"result.txt"</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>白盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2766,67 +2695,219 @@
       </rPr>
       <t>OutputTest.java"</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>低</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>白盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>白盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>白盒测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WCPro </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">17172/17176/17156 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块测试完成</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块测试完成</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块测试完成</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数测试完成</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.03</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.04</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>17178(Team Member)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>17172(Team Member)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>17176(Team Member)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>17156(Team Member)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CPro测试用例一览</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yy\.mm\.dd"/>
+  <numFmts count="1">
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
@@ -2877,13 +2958,6 @@
       <i/>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2919,6 +2993,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2962,7 +3044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3056,19 +3138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3149,26 +3218,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3238,10 +3292,6 @@
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3256,20 +3306,8 @@
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
@@ -3281,46 +3319,41 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3329,8 +3362,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3493,7 +3531,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Information文档信息!$B$38:$B$41</c:f>
+              <c:f>Information文档信息!$B$36:$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3513,18 +3551,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Information文档信息!$E$38:$E$41</c:f>
+              <c:f>Information文档信息!$E$36:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-7.7317490030113131E-5</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.0520061853992024E-6</c:v>
+                  <c:v>3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3646,13 +3684,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4001,10 +4039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L43"/>
+  <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showOutlineSymbols="0" topLeftCell="A22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4077,7 +4115,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="22" t="s">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="21" t="s">
@@ -4086,7 +4124,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22" t="s">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="25"/>
@@ -4098,7 +4136,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22" t="s">
-        <v>3</v>
+        <v>307</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="21" t="s">
@@ -4106,8 +4144,8 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="22" t="s">
-        <v>3</v>
+      <c r="J8" s="22">
+        <v>42</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="25"/>
@@ -4118,8 +4156,8 @@
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
-        <v>3</v>
+      <c r="E9" s="22">
+        <v>17178</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="21" t="s">
@@ -4127,8 +4165,8 @@
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="22" t="s">
-        <v>3</v>
+      <c r="J9" s="54">
+        <v>43194</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="25"/>
@@ -4140,7 +4178,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22" t="s">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="21" t="s">
@@ -4148,8 +4186,8 @@
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="22" t="s">
-        <v>3</v>
+      <c r="J10" s="54">
+        <v>43195</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="25"/>
@@ -4160,8 +4198,8 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="22" t="s">
-        <v>3</v>
+      <c r="E11" s="22">
+        <v>17172</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="21" t="s">
@@ -4194,8 +4232,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="24">
-        <f>65535-COUNTBLANK('Test Cases测试用例'!A:A)</f>
-        <v>-982960</v>
+        <v>80</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -4221,10 +4258,10 @@
       <c r="L15" s="25"/>
     </row>
     <row r="16" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="27"/>
+      <c r="B16" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -4249,7 +4286,7 @@
     </row>
     <row r="18" spans="2:12" ht="16" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -4263,214 +4300,214 @@
       <c r="L18" s="25"/>
     </row>
     <row r="19" spans="2:12" ht="47.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28" t="s">
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="2:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="22" t="s">
-        <v>24</v>
+      <c r="K20" s="22">
+        <v>17178</v>
       </c>
       <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="31">
+      <c r="B21" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="30">
         <v>1.01</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>22</v>
+      <c r="D21" s="22">
+        <v>2</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="22" t="s">
-        <v>24</v>
+      <c r="K21" s="22">
+        <v>17176</v>
       </c>
       <c r="L21" s="25"/>
     </row>
     <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="22" t="s">
-        <v>22</v>
+      <c r="B22" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="22">
+        <v>3</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="22" t="s">
-        <v>24</v>
+      <c r="K22" s="22">
+        <v>17178</v>
       </c>
       <c r="L22" s="25"/>
     </row>
     <row r="23" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="31">
-        <v>1.02</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>22</v>
+      <c r="B23" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="22">
+        <v>4</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="22" t="s">
-        <v>24</v>
+      <c r="K23" s="22">
+        <v>17156</v>
       </c>
       <c r="L23" s="25"/>
     </row>
     <row r="24" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>26</v>
+      <c r="B24" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="22">
+        <v>5</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="22" t="s">
-        <v>24</v>
+      <c r="K24" s="22">
+        <v>17172</v>
       </c>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="31">
-        <v>2</v>
-      </c>
-      <c r="D25" s="22" t="s">
+    <row r="25" spans="2:12" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="2:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="2:12" ht="4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="J27" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="K27" s="21"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="21"/>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" s="29"/>
       <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -4478,18 +4515,18 @@
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="30"/>
+      <c r="J29" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" s="29"/>
       <c r="L29" s="25"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -4497,18 +4534,18 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="30"/>
+      <c r="J30" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="K30" s="29"/>
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -4516,170 +4553,132 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="30"/>
+      <c r="J31" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="K31" s="29"/>
       <c r="L31" s="25"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="22">
-        <v>4</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="34">
-        <v>5</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="50"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-    </row>
-    <row r="38" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B38" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="39">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="33"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+    </row>
+    <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36" spans="2:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="35">
         <f>IF($E$13=0,0,COUNTIF('Test Cases测试用例'!$L:$L,"=OK"))</f>
         <v>76</v>
       </c>
-      <c r="D38" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="40">
-        <f>IF(E13=0,0,C38/E13)</f>
-        <v>-7.7317490030113131E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B39" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="39">
+      <c r="D36" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="36">
+        <f>IF(E13=0,0,C36/E13)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="B37" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="35">
         <f>IF($E$13=0,0,COUNTIF('Test Cases测试用例'!$L:$L,"=POK"))</f>
         <v>0</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="40">
+      <c r="D37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="36">
+        <f>IF(E13=0,0,C37/E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="B38" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="35">
+        <f>IF($E$13=0,0,COUNTIF('Test Cases测试用例'!$L:$L,"=NG"))</f>
+        <v>3</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="36">
+        <f>IF(E13=0,0,C38/E13)</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="B39" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="38">
+        <f>IF($E$13=0,0,COUNTIF('Test Cases测试用例'!$L:$L,"=NT"))</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="39">
         <f>IF(E13=0,0,C39/E13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B40" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="39">
-        <f>IF($E$13=0,0,COUNTIF('Test Cases测试用例'!$L:$L,"=NG"))</f>
-        <v>3</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="40">
-        <f>IF(E13=0,0,C40/E13)</f>
-        <v>-3.0520061853992024E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B41" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="42">
-        <f>IF($E$13=0,0,COUNTIF('Test Cases测试用例'!$L:$L,"=NT"))</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="43">
-        <f>IF(E13=0,0,C41/E13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" spans="2:12" ht="16" x14ac:dyDescent="0.35">
-      <c r="B43" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="57">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="2:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="B41" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="51">
         <f>E13</f>
-        <v>-982960</v>
-      </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
+        <v>80</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="E41" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C41:E41"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -4694,7 +4693,7 @@
   </sheetPr>
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
@@ -4719,43 +4718,43 @@
   <sheetData>
     <row r="1" spans="1:140" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="15"/>
@@ -4890,21 +4889,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="13" t="b">
@@ -4914,13 +4913,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:140" ht="29" x14ac:dyDescent="0.35">
@@ -4928,21 +4927,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="b">
@@ -4952,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:140" ht="29" x14ac:dyDescent="0.35">
@@ -4966,21 +4965,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="b">
@@ -4990,13 +4989,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:140" ht="29" x14ac:dyDescent="0.35">
@@ -5004,21 +5003,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="b">
@@ -5028,13 +5027,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:140" ht="29" x14ac:dyDescent="0.35">
@@ -5042,21 +5041,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="b">
@@ -5066,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N6" s="16"/>
     </row>
@@ -5078,19 +5077,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>113</v>
+        <v>61</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13" t="b">
@@ -5100,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N7" s="16"/>
     </row>
@@ -5112,21 +5111,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>113</v>
+        <v>63</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="b">
@@ -5136,10 +5135,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N8" s="16"/>
     </row>
@@ -5148,21 +5147,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="b">
@@ -5172,10 +5171,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N9" s="16"/>
     </row>
@@ -5184,21 +5183,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>113</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="b">
@@ -5208,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N10" s="16"/>
     </row>
@@ -5220,21 +5219,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>304</v>
+        <v>69</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="b">
@@ -5244,10 +5243,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N11" s="16"/>
     </row>
@@ -5256,21 +5255,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>305</v>
+        <v>70</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="b">
@@ -5280,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -5292,21 +5291,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>305</v>
+        <v>72</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="b">
@@ -5316,10 +5315,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N13" s="16"/>
     </row>
@@ -5328,21 +5327,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>306</v>
+        <v>74</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>295</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="b">
@@ -5352,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -5364,21 +5363,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>305</v>
+        <v>76</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="b">
@@ -5388,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -5400,21 +5399,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>304</v>
+        <v>78</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="b">
@@ -5424,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N16" s="16"/>
     </row>
@@ -5436,21 +5435,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>305</v>
+        <v>80</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12" t="b">
@@ -5460,10 +5459,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N17" s="16"/>
     </row>
@@ -5472,21 +5471,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>304</v>
+        <v>82</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="b">
@@ -5496,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N18" s="16"/>
     </row>
@@ -5508,21 +5507,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>305</v>
+        <v>84</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="b">
@@ -5532,10 +5531,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N19" s="16"/>
     </row>
@@ -5544,21 +5543,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>304</v>
+        <v>86</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="b">
@@ -5568,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N20" s="16"/>
     </row>
@@ -5580,21 +5579,21 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>308</v>
+        <v>88</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>297</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12" t="b">
@@ -5604,10 +5603,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N21" s="16"/>
     </row>
@@ -5615,35 +5614,35 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>307</v>
+      <c r="B22" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>296</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="52" t="s">
-        <v>114</v>
+      <c r="G22" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M22" s="52" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N22" s="16"/>
     </row>
@@ -5651,35 +5650,35 @@
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>307</v>
+      <c r="B23" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>296</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="52" t="s">
-        <v>114</v>
+      <c r="G23" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M23" s="52" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N23" s="16"/>
     </row>
@@ -5687,35 +5686,35 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>307</v>
+      <c r="B24" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>296</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="52" t="s">
-        <v>114</v>
+      <c r="G24" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M24" s="52" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N24" s="16"/>
     </row>
@@ -5723,35 +5722,35 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>307</v>
+      <c r="B25" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>296</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="52" t="s">
-        <v>114</v>
+      <c r="G25" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" s="52" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N25" s="16"/>
     </row>
@@ -5759,35 +5758,35 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>113</v>
+      <c r="B26" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="52" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N26" s="16"/>
     </row>
@@ -5795,35 +5794,35 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>113</v>
+      <c r="B27" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="52" t="s">
-        <v>114</v>
+      <c r="G27" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N27" s="16"/>
     </row>
@@ -5831,35 +5830,35 @@
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>113</v>
+      <c r="B28" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="52" t="s">
-        <v>114</v>
+      <c r="G28" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N28" s="16"/>
     </row>
@@ -5867,35 +5866,35 @@
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>113</v>
+      <c r="B29" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="52" t="s">
-        <v>114</v>
+      <c r="G29" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N29" s="16"/>
     </row>
@@ -5903,35 +5902,35 @@
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>309</v>
+      <c r="B30" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>298</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="52" t="s">
-        <v>114</v>
+      <c r="G30" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" s="52" t="s">
-        <v>119</v>
+        <v>57</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N30" s="16"/>
     </row>
@@ -5939,35 +5938,35 @@
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>113</v>
+      <c r="B31" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="52" t="s">
-        <v>114</v>
+      <c r="G31" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M31" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N31" s="16"/>
     </row>
@@ -5975,35 +5974,35 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>113</v>
+      <c r="B32" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="52" t="s">
-        <v>114</v>
+      <c r="G32" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M32" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N32" s="16"/>
     </row>
@@ -6011,35 +6010,35 @@
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>113</v>
+      <c r="B33" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="52" t="s">
-        <v>114</v>
+      <c r="G33" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M33" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N33" s="16"/>
     </row>
@@ -6047,35 +6046,35 @@
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>113</v>
+      <c r="B34" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="52" t="s">
-        <v>114</v>
+      <c r="G34" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M34" s="52" t="s">
-        <v>119</v>
+        <v>57</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N34" s="16"/>
     </row>
@@ -6083,35 +6082,35 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>305</v>
+      <c r="B35" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="52" t="s">
-        <v>114</v>
+      <c r="G35" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N35" s="16"/>
     </row>
@@ -6119,35 +6118,35 @@
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>305</v>
+      <c r="B36" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="52" t="s">
-        <v>114</v>
+      <c r="G36" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M36" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M36" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N36" s="16"/>
     </row>
@@ -6155,35 +6154,35 @@
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>305</v>
+      <c r="B37" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="52" t="s">
-        <v>114</v>
+      <c r="G37" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N37" s="16"/>
     </row>
@@ -6191,35 +6190,35 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>305</v>
+      <c r="B38" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="52" t="s">
-        <v>114</v>
+      <c r="G38" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N38" s="16"/>
     </row>
@@ -6227,35 +6226,35 @@
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>305</v>
+      <c r="B39" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="52" t="s">
-        <v>114</v>
+      <c r="G39" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" s="52" t="s">
-        <v>119</v>
+        <v>57</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N39" s="16"/>
     </row>
@@ -6263,35 +6262,35 @@
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>305</v>
+      <c r="B40" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="52" t="s">
-        <v>114</v>
+      <c r="G40" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M40" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N40" s="16"/>
     </row>
@@ -6299,35 +6298,35 @@
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>113</v>
+      <c r="B41" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="52" t="s">
-        <v>114</v>
+      <c r="G41" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M41" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N41" s="16"/>
     </row>
@@ -6335,35 +6334,35 @@
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>113</v>
+      <c r="B42" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="52" t="s">
-        <v>114</v>
+      <c r="G42" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M42" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N42" s="16"/>
     </row>
@@ -6371,35 +6370,35 @@
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>310</v>
+      <c r="B43" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="52" t="s">
-        <v>114</v>
+      <c r="G43" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M43" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N43" s="16"/>
     </row>
@@ -6407,35 +6406,35 @@
       <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>113</v>
+      <c r="B44" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="52" t="s">
-        <v>114</v>
+      <c r="G44" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M44" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M44" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N44" s="16"/>
     </row>
@@ -6443,35 +6442,35 @@
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>113</v>
+      <c r="B45" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="52" t="s">
-        <v>114</v>
+      <c r="G45" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M45" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M45" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N45" s="16"/>
     </row>
@@ -6479,35 +6478,35 @@
       <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>113</v>
+      <c r="B46" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="52" t="s">
-        <v>114</v>
+      <c r="G46" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M46" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N46" s="16"/>
     </row>
@@ -6515,35 +6514,35 @@
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>311</v>
+      <c r="B47" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>300</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="52" t="s">
-        <v>114</v>
+      <c r="G47" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M47" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M47" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N47" s="16"/>
     </row>
@@ -6551,35 +6550,35 @@
       <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>113</v>
+      <c r="B48" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="52" t="s">
-        <v>114</v>
+      <c r="G48" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M48" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M48" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N48" s="16"/>
     </row>
@@ -6587,35 +6586,35 @@
       <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>113</v>
+      <c r="B49" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="52" t="s">
-        <v>114</v>
+      <c r="G49" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M49" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M49" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N49" s="16"/>
     </row>
@@ -6623,35 +6622,35 @@
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>113</v>
+      <c r="B50" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="52" t="s">
-        <v>114</v>
+      <c r="G50" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M50" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M50" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="N50" s="16"/>
     </row>
@@ -6659,35 +6658,35 @@
       <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>312</v>
+      <c r="B51" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>301</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="52" t="s">
-        <v>114</v>
+      <c r="G51" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="52" t="s">
-        <v>215</v>
+        <v>52</v>
+      </c>
+      <c r="M51" s="46" t="s">
+        <v>204</v>
       </c>
       <c r="N51" s="16"/>
     </row>
@@ -6695,35 +6694,35 @@
       <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>313</v>
+      <c r="B52" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="52" t="s">
-        <v>114</v>
+      <c r="G52" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M52" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M52" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N52" s="16"/>
     </row>
@@ -6731,35 +6730,35 @@
       <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>313</v>
+      <c r="B53" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="52" t="s">
-        <v>114</v>
+      <c r="G53" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M53" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M53" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N53" s="16"/>
     </row>
@@ -6767,35 +6766,35 @@
       <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>313</v>
+      <c r="B54" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="52" t="s">
-        <v>114</v>
+      <c r="G54" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M54" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M54" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N54" s="16"/>
     </row>
@@ -6803,35 +6802,35 @@
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>313</v>
+      <c r="B55" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="52" t="s">
-        <v>114</v>
+      <c r="G55" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M55" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M55" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N55" s="16"/>
     </row>
@@ -6839,35 +6838,35 @@
       <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>113</v>
+      <c r="B56" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="52" t="s">
-        <v>114</v>
+      <c r="G56" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M56" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M56" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N56" s="16"/>
     </row>
@@ -6875,35 +6874,35 @@
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>113</v>
+      <c r="B57" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="52" t="s">
-        <v>114</v>
+      <c r="G57" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M57" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M57" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N57" s="16"/>
     </row>
@@ -6911,35 +6910,35 @@
       <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>113</v>
+      <c r="B58" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="52" t="s">
-        <v>114</v>
+      <c r="G58" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M58" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M58" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N58" s="16"/>
     </row>
@@ -6947,35 +6946,35 @@
       <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>113</v>
+      <c r="B59" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="52" t="s">
-        <v>114</v>
+      <c r="G59" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M59" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M59" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N59" s="16"/>
     </row>
@@ -6983,35 +6982,35 @@
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>113</v>
+      <c r="B60" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="52" t="s">
-        <v>114</v>
+      <c r="G60" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M60" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M60" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N60" s="16"/>
     </row>
@@ -7019,35 +7018,35 @@
       <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>113</v>
+      <c r="B61" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="52" t="s">
-        <v>114</v>
+      <c r="G61" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M61" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M61" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N61" s="16"/>
     </row>
@@ -7055,35 +7054,35 @@
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>113</v>
+      <c r="B62" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="52" t="s">
-        <v>114</v>
+      <c r="G62" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M62" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M62" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N62" s="16"/>
     </row>
@@ -7091,35 +7090,35 @@
       <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>113</v>
+      <c r="B63" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="52" t="s">
-        <v>114</v>
+      <c r="G63" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M63" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M63" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N63" s="16"/>
     </row>
@@ -7127,35 +7126,35 @@
       <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>113</v>
+      <c r="B64" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="52" t="s">
-        <v>114</v>
+      <c r="G64" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M64" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M64" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N64" s="16"/>
     </row>
@@ -7163,35 +7162,35 @@
       <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>305</v>
+      <c r="B65" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="52" t="s">
-        <v>114</v>
+      <c r="G65" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M65" s="52" t="s">
-        <v>287</v>
+        <v>52</v>
+      </c>
+      <c r="M65" s="46" t="s">
+        <v>276</v>
       </c>
       <c r="N65" s="16"/>
     </row>
@@ -7199,33 +7198,33 @@
       <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>309</v>
+      <c r="B66" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>298</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
-      <c r="G66" s="52" t="s">
-        <v>292</v>
+      <c r="G66" s="46" t="s">
+        <v>281</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L66" s="12"/>
-      <c r="M66" s="52" t="s">
-        <v>216</v>
+      <c r="M66" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N66" s="16"/>
     </row>
@@ -7233,35 +7232,35 @@
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>294</v>
+      <c r="B67" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>283</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="52" t="s">
-        <v>295</v>
+      <c r="G67" s="46" t="s">
+        <v>284</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="M67" s="52" t="s">
-        <v>302</v>
+        <v>290</v>
+      </c>
+      <c r="M67" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="N67" s="16"/>
     </row>
@@ -7270,34 +7269,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>113</v>
+        <v>237</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="52" t="s">
-        <v>114</v>
+      <c r="G68" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M68" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M68" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N68" s="16"/>
     </row>
@@ -7306,34 +7305,34 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>113</v>
+        <v>237</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="52" t="s">
-        <v>114</v>
+      <c r="G69" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M69" s="52" t="s">
-        <v>314</v>
+        <v>52</v>
+      </c>
+      <c r="M69" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="N69" s="16"/>
     </row>
@@ -7342,34 +7341,34 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D70" s="52" t="s">
-        <v>113</v>
+        <v>237</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="52" t="s">
-        <v>114</v>
+      <c r="G70" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M70" s="52" t="s">
-        <v>315</v>
+        <v>52</v>
+      </c>
+      <c r="M70" s="46" t="s">
+        <v>304</v>
       </c>
       <c r="N70" s="16"/>
     </row>
@@ -7378,34 +7377,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="52" t="s">
-        <v>113</v>
+        <v>237</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="52" t="s">
-        <v>114</v>
+      <c r="G71" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M71" s="52" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="M71" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="N71" s="16"/>
     </row>
@@ -7414,34 +7413,34 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>113</v>
+        <v>237</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="52" t="s">
-        <v>114</v>
+      <c r="G72" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M72" s="52" t="s">
-        <v>316</v>
+        <v>52</v>
+      </c>
+      <c r="M72" s="46" t="s">
+        <v>305</v>
       </c>
       <c r="N72" s="16"/>
     </row>
@@ -7450,31 +7449,31 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G73" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="K73" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M73" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M73" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.35">
@@ -7482,31 +7481,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C74" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D74" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G74" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G74" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M74" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M74" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.35">
@@ -7514,31 +7513,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D75" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G75" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M75" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M75" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.35">
@@ -7546,31 +7545,31 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D76" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G76" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M76" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M76" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.35">
@@ -7578,31 +7577,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D77" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G77" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M77" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M77" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.35">
@@ -7610,31 +7609,31 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D78" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G78" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M78" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M78" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.35">
@@ -7642,31 +7641,31 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G79" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M79" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M79" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.35">
@@ -7674,31 +7673,31 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D80" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G80" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M80" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M80" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.35">
@@ -7706,31 +7705,31 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C81" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G81" s="52" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G81" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="H81" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K81" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>283</v>
-      </c>
       <c r="L81" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M81" s="52" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M81" s="46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -44659,7 +44658,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Invalide Data" sqref="K2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12390:L65536">
@@ -44692,7 +44691,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -44702,7 +44701,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -44711,7 +44710,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -44720,7 +44719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -44729,7 +44728,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -44738,7 +44737,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -44747,7 +44746,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -44756,7 +44755,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -44765,7 +44764,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -44774,12 +44773,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
